--- a/data/trans_camb/P10_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_1-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,72</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 7,76</t>
+          <t>-5,8; 8,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 6,09</t>
+          <t>-5,1; 5,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 4,94</t>
+          <t>-3,31; 5,45</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,79%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 9,13</t>
+          <t>-6,28; 9,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 6,79</t>
+          <t>-5,28; 5,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 5,55</t>
+          <t>-3,57; 6,11</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-1,09</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 2,32</t>
+          <t>-7,09; 2,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 4,27</t>
+          <t>-4,57; 3,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 2,17</t>
+          <t>-4,39; 1,94</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,38%</t>
+          <t>-2,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>-0,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>-1,15%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 2,48</t>
+          <t>-7,24; 2,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 4,62</t>
+          <t>-4,71; 4,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 2,33</t>
+          <t>-4,58; 2,08</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,72</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 6,38</t>
+          <t>-6,34; 6,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 3,16</t>
+          <t>-6,03; 2,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 3,42</t>
+          <t>-4,62; 3,01</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,23%</t>
+          <t>-0,79%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 7,45</t>
+          <t>-6,81; 7,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 3,49</t>
+          <t>-6,29; 3,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 3,78</t>
+          <t>-4,97; 3,34</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,08</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 4,42</t>
+          <t>-8,13; 4,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 7,69</t>
+          <t>-1,91; 7,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,71</t>
+          <t>-2,99; 5,14</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,22%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 5,07</t>
+          <t>-8,94; 4,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 9,07</t>
+          <t>-1,99; 8,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 5,4</t>
+          <t>-3,31; 5,94</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 6,95</t>
+          <t>-9,46; 7,81</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 12,25</t>
+          <t>-3,2; 9,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 7,26</t>
+          <t>-3,18; 7,16</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>-0,74%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,11%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 8,97</t>
+          <t>-11,34; 10,32</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 15,36</t>
+          <t>-3,62; 12,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 9,17</t>
+          <t>-3,8; 9,07</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>10,41</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>8,32</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 18,73</t>
+          <t>-0,24; 20,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 14,59</t>
+          <t>-1,81; 14,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 13,63</t>
+          <t>1,64; 15,11</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>17,21%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>14,5%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 34,16</t>
+          <t>-0,29; 37,01</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 28,37</t>
+          <t>-3,01; 29,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 25,23</t>
+          <t>2,54; 27,95</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,82</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 4,14</t>
+          <t>-1,65; 4,39</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 5,01</t>
+          <t>-0,27; 4,98</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 3,75</t>
+          <t>-0,2; 3,99</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,17%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,95</t>
+          <t>-1,91; 5,29</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 6,02</t>
+          <t>-0,24; 6,17</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 4,51</t>
+          <t>-0,23; 4,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P10_1-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,36</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.625577799156286</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.5031616889910384</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.156384573247815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,8; 8,1</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,1; 5,02</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 5,45</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.061803926109655</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.961057146422046</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.916694293091561</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.477897330533029</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.233285664531062</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.736163247955886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,28; 9,69</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,28; 5,42</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 6,11</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.01830714538767478</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.00536280078040593</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01268237378837837</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,94</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.05489841989650102</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.0513138921115752</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.03156754669968021</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,09; 2,71</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 3,8</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,39; 1,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.1015960106641498</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.05774096869912208</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.06466235284213213</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,02%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,18%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,15%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.588144453018459</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.08679090098188125</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.7916844585432403</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-7,24; 2,87</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,71; 4,07</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,58; 2,08</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.720236425443063</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.126404448051334</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.016883285223583</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.886928552896101</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.889241728570667</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.135000406651449</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,34; 6,15</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,03; 2,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 3,01</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.01655051225855356</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.0009130549202609001</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.008287717274884152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,25%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,3%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,79%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.07000655252863219</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.04253119458360952</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.04157988600995432</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 7,01</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-6,29; 3,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 3,34</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.03088465631519306</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.04178141438104954</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.0228286708319203</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.6056195401486053</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.6438283349114116</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.02701114929460902</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-8,13; 4,29</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 7,31</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,99; 5,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-5.085364137010679</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.216024111215507</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-3.666713239839556</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-0,76%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,08%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1,22%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>7.221374207410911</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.093164410069622</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>3.763892134372031</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-8,94; 4,76</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 8,76</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 5,94</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.006635190198070209</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.006974392050022569</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.0002942375358447149</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3,9</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.0540865574447685</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.05604336045993402</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.03923298598055661</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-9,46; 7,81</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; 9,75</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; 7,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.08342585672263872</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.03410826591783597</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.0419962494495135</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-0,74%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.7589234669586942</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.857348242352931</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>1.130676741027636</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-11,34; 10,32</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; 12,16</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 9,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.00588227301243</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.647171889259113</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.715014595329583</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>10,41</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>6,69</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>8,32</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.305983578530253</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.597883570536259</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.27044343172379</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 20,14</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 14,73</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,64; 15,11</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.008417906151079209</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.03267928420672928</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.01274285164517633</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>17,21%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>12,16%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>14,5%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.08695977101402734</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.01793805699452827</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.03030807275641957</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-0,29; 37,01</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; 29,43</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 27,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.04901791750514376</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.09002454532754894</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.06058598299272355</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-0.9772764823555824</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>4.048406851705422</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>1.596900744316199</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-1,65; 4,39</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 4,98</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 3,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-9.915531101521173</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-2.953813489442546</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-3.515318303776753</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>2,79%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>7.855735295031921</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>9.893227199633724</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>7.052843582862081</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 5,29</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 6,17</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 4,84</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.0121839922524726</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0.04819248646648209</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0.01945313103313025</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.1196437197619694</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.03192772019830287</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.04215733068785498</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.1073840452299503</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.1246916803677392</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.08924196816959122</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>9.140140765795957</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>4.66678595765071</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>6.61232826730428</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-3.331697741930251</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-4.106684719324837</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-0.5131276474296756</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>19.02965493733549</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>12.75752296558703</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>13.57100601619758</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>0.151148803618896</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.08481899405647454</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0.1152917852092283</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.04483566333464092</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.0664819989958458</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.008393727311920595</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.3482031653729846</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.255403683922919</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.2498904548455179</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>1.342517797088949</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>2.108315865308708</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>1.734265781903666</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-1.619095026949748</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-0.61879943807085</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-0.4406421329344456</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>4.557301544054223</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>4.849810139563929</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>3.837356591117396</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.01580586587369901</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0.02532539697248853</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0.02062785015013205</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.01886079354631209</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.007365454256956026</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.00520357262997018</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.05462247892377724</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.058780964672452</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.04615643343717257</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
